--- a/cafe_orders_data.xlsx
+++ b/cafe_orders_data.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamup\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4B904-0FA1-4B4B-A9EE-14C82E515B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$22</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,11 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,25 +114,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -198,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,9 +250,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,15 +426,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -431,8 +453,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>45433</v>
       </c>
       <c r="B2" t="s">
@@ -448,8 +470,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>45433</v>
       </c>
       <c r="B3" t="s">
@@ -465,8 +487,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>45433</v>
       </c>
       <c r="B4" t="s">
@@ -482,8 +504,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>45433</v>
       </c>
       <c r="B5" t="s">
@@ -499,8 +521,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>45434</v>
       </c>
       <c r="B6" t="s">
@@ -516,8 +538,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>45434</v>
       </c>
       <c r="B7" t="s">
@@ -533,8 +555,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>45434</v>
       </c>
       <c r="B8" t="s">
@@ -550,8 +572,8 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>45435</v>
       </c>
       <c r="B9" t="s">
@@ -567,8 +589,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>45435</v>
       </c>
       <c r="B10" t="s">
@@ -584,8 +606,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>45435</v>
       </c>
       <c r="B11" t="s">
@@ -601,8 +623,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>45436</v>
       </c>
       <c r="B12" t="s">
@@ -618,8 +640,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>45436</v>
       </c>
       <c r="B13" t="s">
@@ -635,8 +657,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>45436</v>
       </c>
       <c r="B14" t="s">
@@ -652,8 +674,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>45437</v>
       </c>
       <c r="B15" t="s">
@@ -669,8 +691,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>45437</v>
       </c>
       <c r="B16" t="s">
@@ -686,8 +708,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>45437</v>
       </c>
       <c r="B17" t="s">
@@ -703,8 +725,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>45438</v>
       </c>
       <c r="B18" t="s">
@@ -720,8 +742,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>45438</v>
       </c>
       <c r="B19" t="s">
@@ -737,8 +759,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>45439</v>
       </c>
       <c r="B20" t="s">
@@ -754,8 +776,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>45439</v>
       </c>
       <c r="B21" t="s">
@@ -771,8 +793,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>45439</v>
       </c>
       <c r="B22" t="s">
